--- a/meta/16-6-2.xlsx
+++ b/meta/16-6-2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E8BC61F-0C72-4FD5-838F-F8D87EC0C2AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72315B5B-A2CB-45E9-A5A8-F86CB37CB29F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="435" yWindow="1545" windowWidth="8790" windowHeight="7875" xr2:uid="{C28ABAC6-3CF1-48CB-9960-59C2C023F4B5}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{C28ABAC6-3CF1-48CB-9960-59C2C023F4B5}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="147">
   <si>
     <t>Objetivo</t>
   </si>
@@ -848,8 +848,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A78418C-B6CC-4149-817A-EE8E397ACDB2}">
   <dimension ref="A1:B134"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A66" workbookViewId="0">
-      <selection activeCell="B68" sqref="B68"/>
+    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="B46" sqref="B46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1107,6 +1107,9 @@
       <c r="A46" t="s">
         <v>45</v>
       </c>
+      <c r="B46" t="s">
+        <v>144</v>
+      </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
